--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/order30fsh2.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/order30fsh2.xlsx
@@ -3,13 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23615"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{B6F64EB5-435E-41B3-B84D-EB0BB62CF48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F15EC569-9DD8-4256-AFA7-60F297AC56B8}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdesai\Guthy-Renker, LLC\ecommerce - Documents\Merchandising Data Repo\CrepeErase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{B6F64EB5-435E-41B3-B84D-EB0BB62CF48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{44B3709D-C65A-41EE-BD20-A9078F2D25EC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -422,15 +426,6 @@
   </si>
   <si>
     <t>End</t>
-  </si>
-  <si>
-    <t>https://www.crepeerase.com/campaign/classic-evergeen-refresh</t>
-  </si>
-  <si>
-    <t>https://www.crepeerase.com/?src=classicEvergeenRefresh</t>
-  </si>
-  <si>
-    <t>classic-evergeen-refresh</t>
   </si>
 </sst>
 </file>
@@ -485,7 +480,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,20 +499,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -773,156 +756,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1041,118 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1471,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1824,7 +1551,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" s="27" customFormat="1" ht="409.6">
+    <row r="29" spans="1:5" s="27" customFormat="1" ht="409.5">
       <c r="A29" s="25" t="s">
         <v>52</v>
       </c>
@@ -2651,1191 +2378,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D1414C-0393-4407-8750-CB6AAA41BA3F}">
-  <dimension ref="A1:I106"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="61.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="19"/>
-    <col min="8" max="8" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" s="42" customFormat="1" ht="15.75">
-      <c r="A13" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:9" s="42" customFormat="1" ht="15.75">
-      <c r="A14" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" s="42" customFormat="1" ht="15.75">
-      <c r="A15" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" s="42" customFormat="1" ht="15.75">
-      <c r="A16" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="63">
-        <v>2</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A17" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-    </row>
-    <row r="18" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A18" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A19" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A20" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A21" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-    </row>
-    <row r="22" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A22" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="62">
-        <v>1</v>
-      </c>
-      <c r="C22" s="63">
-        <v>1</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A24" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="67">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="C24" s="68">
-        <v>59.95</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A25" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A26" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:5" s="42" customFormat="1" ht="141.75">
-      <c r="A27" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="1:5" s="42" customFormat="1" ht="120">
-      <c r="A28" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="1:5" s="42" customFormat="1" ht="409.6">
-      <c r="A29" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A30" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A31" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A32" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A33" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A34" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-    </row>
-    <row r="35" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A35" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A36" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-    </row>
-    <row r="37" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A37" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-    </row>
-    <row r="38" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A38" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="67">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="C38" s="68">
-        <v>59.95</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-    </row>
-    <row r="39" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A39" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-    </row>
-    <row r="40" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A40" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="62">
-        <v>3</v>
-      </c>
-      <c r="C40" s="63">
-        <v>3</v>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-    </row>
-    <row r="41" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A41" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-    </row>
-    <row r="42" spans="1:5" s="42" customFormat="1" ht="157.5">
-      <c r="A42" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-    </row>
-    <row r="43" spans="1:5" s="42" customFormat="1" ht="135">
-      <c r="A43" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-    </row>
-    <row r="44" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A44" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-    </row>
-    <row r="45" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A45" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="44"/>
-    </row>
-    <row r="46" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A46" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A47" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-    </row>
-    <row r="48" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A48" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-    </row>
-    <row r="49" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A49" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-    </row>
-    <row r="50" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A50" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-    </row>
-    <row r="51" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A51" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="62">
-        <v>2</v>
-      </c>
-      <c r="C51" s="63">
-        <v>5</v>
-      </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-    </row>
-    <row r="52" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A52" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-    </row>
-    <row r="53" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A53" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-    </row>
-    <row r="54" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A54" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="62">
-        <v>3</v>
-      </c>
-      <c r="C54" s="63">
-        <v>3</v>
-      </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-    </row>
-    <row r="55" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A55" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-    </row>
-    <row r="56" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A56" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="67">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="C56" s="68">
-        <v>59.95</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-    </row>
-    <row r="57" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A57" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="76">
-        <v>2.99</v>
-      </c>
-      <c r="C57" s="77">
-        <v>3.99</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-    </row>
-    <row r="58" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A58" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="62">
-        <v>3</v>
-      </c>
-      <c r="C58" s="63">
-        <v>3</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-    </row>
-    <row r="59" spans="1:5" s="42" customFormat="1" ht="15.75">
-      <c r="A59" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75">
-      <c r="A60" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75">
-      <c r="A61" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75">
-      <c r="A62" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75">
-      <c r="A63" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75">
-      <c r="A70" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75">
-      <c r="A71" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75">
-      <c r="A72" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75">
-      <c r="A73" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75">
-      <c r="A74" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75">
-      <c r="A81" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75">
-      <c r="A82" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75">
-      <c r="A83" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75">
-      <c r="A84" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75">
-      <c r="A85" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75">
-      <c r="A86" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75">
-      <c r="A87" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75">
-      <c r="A88" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75">
-      <c r="A89" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75">
-      <c r="A90" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75">
-      <c r="A91" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75">
-      <c r="A92" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75">
-      <c r="A93" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75">
-      <c r="A94" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75">
-      <c r="A95" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75">
-      <c r="A96" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75">
-      <c r="A97" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75">
-      <c r="A98" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75">
-      <c r="A99" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.75">
-      <c r="A100" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.75">
-      <c r="A101" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.75">
-      <c r="A102" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75">
-      <c r="A103" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75">
-      <c r="A104" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75">
-      <c r="A105" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75">
-      <c r="A106" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A15:C15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{99B7038C-E942-4937-B12E-ED2BE413CB9D}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{B14B7726-75FD-4732-A4E6-361BB413FF08}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -4000,23 +2558,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4024,5 +2567,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE300D08-B0CB-4DA8-9AA7-F031ED0BA7B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
 </file>